--- a/progress/data/Work Completion Status.xlsx
+++ b/progress/data/Work Completion Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Qstatus" sheetId="1" r:id="rId1"/>
@@ -1396,9 +1396,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>evwZj</t>
   </si>
   <si>
@@ -1412,6 +1409,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>ids</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1541,6 +1541,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1825,26 +1828,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K358"/>
+  <dimension ref="A1:L358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="42">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="42">
       <c r="A1" s="5" t="s">
         <v>426</v>
       </c>
@@ -1878,8 +1882,11 @@
       <c r="K1" s="7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L1" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1911,8 +1918,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L2" s="14">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1944,8 +1954,11 @@
         <v>0.82</v>
       </c>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L3" s="14">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="33.75" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1977,8 +1990,11 @@
         <v>1</v>
       </c>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L4" s="14">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33.75" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2010,8 +2026,11 @@
         <v>1</v>
       </c>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L5" s="14">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33.75" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2041,8 +2060,11 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L6" s="14">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="33.75" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2074,8 +2096,11 @@
         <v>1</v>
       </c>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L7" s="14">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33.75" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2107,8 +2132,11 @@
         <v>1</v>
       </c>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L8" s="14">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33.75" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2140,8 +2168,11 @@
         <v>1</v>
       </c>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L9" s="14">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33.75" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2173,8 +2204,11 @@
         <v>1</v>
       </c>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L10" s="14">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33.75" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2206,8 +2240,11 @@
         <v>1</v>
       </c>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L11" s="14">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="33.75" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2239,8 +2276,11 @@
         <v>1</v>
       </c>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L12" s="14">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33.75" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2272,8 +2312,11 @@
         <v>1</v>
       </c>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L13" s="14">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="33.75" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2305,8 +2348,11 @@
         <v>0.66</v>
       </c>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L14" s="14">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="33.75" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2332,14 +2378,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33.75" customHeight="1">
+        <v>430</v>
+      </c>
+      <c r="L15" s="14">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33.75" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2371,8 +2420,11 @@
         <v>0.44</v>
       </c>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L16" s="14">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="33.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2402,8 +2454,11 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L17" s="14">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="33.75" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2435,8 +2490,11 @@
         <v>0.9</v>
       </c>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L18" s="14">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="33.75" customHeight="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2468,8 +2526,11 @@
         <v>0.85</v>
       </c>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L19" s="14">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="33.75" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2501,8 +2562,11 @@
         <v>0.2</v>
       </c>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L20" s="14">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="33.75" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -2532,8 +2596,11 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L21" s="14">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="33.75" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -2563,8 +2630,11 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L22" s="14">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="33.75" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -2594,8 +2664,11 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L23" s="14">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="33.75" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2627,8 +2700,11 @@
         <v>1</v>
       </c>
       <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L24" s="14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="33.75" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2660,8 +2736,11 @@
         <v>1</v>
       </c>
       <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L25" s="14">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="33.75" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -2693,8 +2772,11 @@
         <v>1</v>
       </c>
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L26" s="14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="33.75" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -2726,8 +2808,11 @@
         <v>1</v>
       </c>
       <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L27" s="14">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="33.75" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2759,8 +2844,11 @@
         <v>1</v>
       </c>
       <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L28" s="14">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="33.75" customHeight="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2792,8 +2880,11 @@
         <v>1</v>
       </c>
       <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L29" s="14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="33.75" customHeight="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2825,8 +2916,11 @@
         <v>1</v>
       </c>
       <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L30" s="14">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="33.75" customHeight="1">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2858,8 +2952,11 @@
         <v>1</v>
       </c>
       <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L31" s="14">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="33.75" customHeight="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2891,8 +2988,11 @@
         <v>1</v>
       </c>
       <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L32" s="14">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="33.75" customHeight="1">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2922,8 +3022,11 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L33" s="14">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="33.75" customHeight="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2953,8 +3056,11 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L34" s="14">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" customHeight="1">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2984,8 +3090,11 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L35" s="14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" customHeight="1">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -3015,8 +3124,11 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L36" s="14">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="33.75" customHeight="1">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -3046,8 +3158,11 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L37" s="14">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="33.75" customHeight="1">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -3077,8 +3192,11 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L38" s="14">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="33.75" customHeight="1">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -3108,8 +3226,11 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L39" s="14">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="33.75" customHeight="1">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -3141,8 +3262,11 @@
         <v>1</v>
       </c>
       <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L40" s="14">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="33.75" customHeight="1">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -3174,8 +3298,11 @@
         <v>1</v>
       </c>
       <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L41" s="14">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="33.75" customHeight="1">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -3207,8 +3334,11 @@
         <v>1</v>
       </c>
       <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L42" s="14">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="33.75" customHeight="1">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -3240,8 +3370,11 @@
         <v>1</v>
       </c>
       <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L43" s="14">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="33.75" customHeight="1">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -3273,8 +3406,11 @@
         <v>1</v>
       </c>
       <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L44" s="14">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="33.75" customHeight="1">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -3306,8 +3442,11 @@
         <v>1</v>
       </c>
       <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L45" s="14">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="33.75" customHeight="1">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -3339,8 +3478,11 @@
         <v>1</v>
       </c>
       <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L46" s="14">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="33.75" customHeight="1">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -3372,8 +3514,11 @@
         <v>1</v>
       </c>
       <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L47" s="14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="33.75" customHeight="1">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -3403,8 +3548,11 @@
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L48" s="14">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="33.75" customHeight="1">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -3436,8 +3584,11 @@
         <v>1</v>
       </c>
       <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L49" s="14">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="33.75" customHeight="1">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -3469,8 +3620,11 @@
         <v>1</v>
       </c>
       <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L50" s="14">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="33.75" customHeight="1">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -3502,8 +3656,11 @@
         <v>1</v>
       </c>
       <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L51" s="14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="33.75" customHeight="1">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -3529,14 +3686,17 @@
         <v>0</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="33.75" customHeight="1">
+        <v>431</v>
+      </c>
+      <c r="L52" s="14">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="33.75" customHeight="1">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -3566,8 +3726,11 @@
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L53" s="14">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="33.75" customHeight="1">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -3599,8 +3762,11 @@
         <v>1</v>
       </c>
       <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L54" s="14">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="33.75" customHeight="1">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -3630,10 +3796,13 @@
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="33.75" customHeight="1">
+        <v>430</v>
+      </c>
+      <c r="L55" s="14">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="33.75" customHeight="1">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -3665,8 +3834,11 @@
         <v>1</v>
       </c>
       <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L56" s="14">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="33.75" customHeight="1">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -3698,8 +3870,11 @@
         <v>0.59</v>
       </c>
       <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L57" s="14">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="33.75" customHeight="1">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -3731,8 +3906,11 @@
         <v>0.32</v>
       </c>
       <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L58" s="14">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="33.75" customHeight="1">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -3764,8 +3942,11 @@
         <v>1</v>
       </c>
       <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L59" s="14">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="33.75" customHeight="1">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -3797,8 +3978,11 @@
         <v>1</v>
       </c>
       <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L60" s="14">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="33.75" customHeight="1">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -3830,8 +4014,11 @@
         <v>1</v>
       </c>
       <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L61" s="14">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="33.75" customHeight="1">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -3863,8 +4050,11 @@
         <v>1</v>
       </c>
       <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L62" s="14">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="33.75" customHeight="1">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -3894,8 +4084,11 @@
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L63" s="14">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="33.75" customHeight="1">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -3925,8 +4118,11 @@
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L64" s="14">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="33.75" customHeight="1">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -3956,8 +4152,11 @@
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L65" s="14">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="33.75" customHeight="1">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -3989,8 +4188,11 @@
         <v>1</v>
       </c>
       <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L66" s="14">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="33.75" customHeight="1">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -4022,8 +4224,11 @@
         <v>1</v>
       </c>
       <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L67" s="14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="33.75" customHeight="1">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -4055,10 +4260,13 @@
         <v>0.15</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L68" s="14">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="33.75" customHeight="1">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -4090,8 +4298,11 @@
         <v>1</v>
       </c>
       <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L69" s="14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="33.75" customHeight="1">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -4123,8 +4334,11 @@
         <v>1</v>
       </c>
       <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L70" s="14">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="33.75" customHeight="1">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -4156,8 +4370,11 @@
         <v>1</v>
       </c>
       <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L71" s="14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="33.75" customHeight="1">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -4189,8 +4406,11 @@
         <v>1</v>
       </c>
       <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L72" s="14">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="33.75" customHeight="1">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -4222,8 +4442,11 @@
         <v>1</v>
       </c>
       <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L73" s="14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="33.75" customHeight="1">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -4255,8 +4478,11 @@
         <v>0.98</v>
       </c>
       <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L74" s="14">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="33.75" customHeight="1">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -4288,8 +4514,11 @@
         <v>0.97</v>
       </c>
       <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L75" s="14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="33.75" customHeight="1">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -4321,8 +4550,11 @@
         <v>1</v>
       </c>
       <c r="K76" s="4"/>
-    </row>
-    <row r="77" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L76" s="14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="33.75" customHeight="1">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -4354,8 +4586,11 @@
         <v>1</v>
       </c>
       <c r="K77" s="4"/>
-    </row>
-    <row r="78" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L77" s="14">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="33.75" customHeight="1">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -4387,8 +4622,11 @@
         <v>1</v>
       </c>
       <c r="K78" s="4"/>
-    </row>
-    <row r="79" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L78" s="14">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="33.75" customHeight="1">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -4420,8 +4658,11 @@
         <v>1</v>
       </c>
       <c r="K79" s="4"/>
-    </row>
-    <row r="80" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L79" s="14">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="33.75" customHeight="1">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -4453,8 +4694,11 @@
         <v>1</v>
       </c>
       <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L80" s="14">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="33.75" customHeight="1">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -4486,10 +4730,13 @@
         <v>0.05</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L81" s="14">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="33.75" customHeight="1">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -4521,8 +4768,11 @@
         <v>1</v>
       </c>
       <c r="K82" s="4"/>
-    </row>
-    <row r="83" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L82" s="14">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="33.75" customHeight="1">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -4554,8 +4804,11 @@
         <v>1</v>
       </c>
       <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L83" s="14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="33.75" customHeight="1">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -4587,8 +4840,11 @@
         <v>1</v>
       </c>
       <c r="K84" s="4"/>
-    </row>
-    <row r="85" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L84" s="14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="33.75" customHeight="1">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -4620,8 +4876,11 @@
         <v>1</v>
       </c>
       <c r="K85" s="4"/>
-    </row>
-    <row r="86" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L85" s="14">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="33.75" customHeight="1">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -4653,8 +4912,11 @@
         <v>1</v>
       </c>
       <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L86" s="14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="33.75" customHeight="1">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -4686,8 +4948,11 @@
         <v>1</v>
       </c>
       <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L87" s="14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="33.75" customHeight="1">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -4719,8 +4984,11 @@
         <v>1</v>
       </c>
       <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L88" s="14">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="33.75" customHeight="1">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -4752,8 +5020,11 @@
         <v>1</v>
       </c>
       <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L89" s="14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="33.75" customHeight="1">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -4785,8 +5056,11 @@
         <v>0.9</v>
       </c>
       <c r="K90" s="4"/>
-    </row>
-    <row r="91" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L90" s="14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="33.75" customHeight="1">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -4818,8 +5092,11 @@
         <v>1</v>
       </c>
       <c r="K91" s="4"/>
-    </row>
-    <row r="92" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L91" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="33.75" customHeight="1">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -4851,10 +5128,13 @@
         <v>0.6</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L92" s="14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="33.75" customHeight="1">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -4886,10 +5166,13 @@
         <v>0.06</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L93" s="14">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="33.75" customHeight="1">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -4921,8 +5204,11 @@
         <v>1</v>
       </c>
       <c r="K94" s="4"/>
-    </row>
-    <row r="95" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L94" s="14">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="33.75" customHeight="1">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -4954,10 +5240,13 @@
         <v>0.2</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L95" s="14">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="33.75" customHeight="1">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -4987,10 +5276,13 @@
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L96" s="14">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="33.75" customHeight="1">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -5022,8 +5314,11 @@
         <v>1</v>
       </c>
       <c r="K97" s="4"/>
-    </row>
-    <row r="98" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L97" s="14">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="33.75" customHeight="1">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -5055,8 +5350,11 @@
         <v>1</v>
       </c>
       <c r="K98" s="4"/>
-    </row>
-    <row r="99" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L98" s="14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="33.75" customHeight="1">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -5088,8 +5386,11 @@
         <v>1</v>
       </c>
       <c r="K99" s="4"/>
-    </row>
-    <row r="100" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L99" s="14">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="33.75" customHeight="1">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -5121,8 +5422,11 @@
         <v>1</v>
       </c>
       <c r="K100" s="4"/>
-    </row>
-    <row r="101" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L100" s="14">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="33.75" customHeight="1">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -5154,10 +5458,13 @@
         <v>0.51</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L101" s="14">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="33.75" customHeight="1">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -5189,10 +5496,13 @@
         <v>0.1</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L102" s="14">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="33.75" customHeight="1">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -5224,10 +5534,13 @@
         <v>0.15</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L103" s="14">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="33.75" customHeight="1">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -5259,10 +5572,13 @@
         <v>0.65</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L104" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="33.75" customHeight="1">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -5294,8 +5610,11 @@
         <v>0.95</v>
       </c>
       <c r="K105" s="4"/>
-    </row>
-    <row r="106" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L105" s="14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="33.75" customHeight="1">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -5327,8 +5646,11 @@
         <v>1</v>
       </c>
       <c r="K106" s="4"/>
-    </row>
-    <row r="107" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L106" s="14">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="33.75" customHeight="1">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -5360,8 +5682,11 @@
         <v>1</v>
       </c>
       <c r="K107" s="4"/>
-    </row>
-    <row r="108" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L107" s="14">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="33.75" customHeight="1">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -5391,10 +5716,13 @@
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L108" s="14">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="33.75" customHeight="1">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -5426,8 +5754,11 @@
         <v>1</v>
       </c>
       <c r="K109" s="4"/>
-    </row>
-    <row r="110" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L109" s="14">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="33.75" customHeight="1">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -5459,10 +5790,13 @@
         <v>0.96</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L110" s="14">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="33.75" customHeight="1">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -5494,8 +5828,11 @@
         <v>1</v>
       </c>
       <c r="K111" s="4"/>
-    </row>
-    <row r="112" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L111" s="14">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="33.75" customHeight="1">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -5527,10 +5864,13 @@
         <v>0.6</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L112" s="14">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="33.75" customHeight="1">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -5562,8 +5902,11 @@
         <v>1</v>
       </c>
       <c r="K113" s="4"/>
-    </row>
-    <row r="114" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L113" s="14">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="33.75" customHeight="1">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -5595,10 +5938,13 @@
         <v>0.92</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L114" s="14">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="33.75" customHeight="1">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -5630,10 +5976,13 @@
         <v>0.9</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L115" s="14">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="33.75" customHeight="1">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -5665,10 +6014,13 @@
         <v>0.96</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L116" s="14">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="33.75" customHeight="1">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -5694,12 +6046,15 @@
         <v>2</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L117" s="14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="33.75" customHeight="1">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -5731,8 +6086,11 @@
         <v>1</v>
       </c>
       <c r="K118" s="4"/>
-    </row>
-    <row r="119" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L118" s="14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="33.75" customHeight="1">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -5764,10 +6122,13 @@
         <v>0.85</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L119" s="14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="33.75" customHeight="1">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -5799,8 +6160,11 @@
         <v>1</v>
       </c>
       <c r="K120" s="4"/>
-    </row>
-    <row r="121" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L120" s="14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="33.75" customHeight="1">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -5832,10 +6196,13 @@
         <v>0.5</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L121" s="14">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="33.75" customHeight="1">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -5867,8 +6234,11 @@
         <v>1</v>
       </c>
       <c r="K122" s="4"/>
-    </row>
-    <row r="123" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L122" s="14">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="33.75" customHeight="1">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -5900,8 +6270,11 @@
         <v>1</v>
       </c>
       <c r="K123" s="4"/>
-    </row>
-    <row r="124" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L123" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="33.75" customHeight="1">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -5933,8 +6306,11 @@
         <v>1</v>
       </c>
       <c r="K124" s="4"/>
-    </row>
-    <row r="125" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L124" s="14">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="33.75" customHeight="1">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -5966,8 +6342,11 @@
         <v>1</v>
       </c>
       <c r="K125" s="4"/>
-    </row>
-    <row r="126" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L125" s="14">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="33.75" customHeight="1">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -5999,8 +6378,11 @@
         <v>1</v>
       </c>
       <c r="K126" s="4"/>
-    </row>
-    <row r="127" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L126" s="14">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="33.75" customHeight="1">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -6032,8 +6414,11 @@
         <v>0.96</v>
       </c>
       <c r="K127" s="4"/>
-    </row>
-    <row r="128" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L127" s="14">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="33.75" customHeight="1">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -6065,8 +6450,11 @@
         <v>0.9</v>
       </c>
       <c r="K128" s="4"/>
-    </row>
-    <row r="129" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L128" s="14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="33.75" customHeight="1">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -6098,8 +6486,11 @@
         <v>1</v>
       </c>
       <c r="K129" s="4"/>
-    </row>
-    <row r="130" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L129" s="14">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="33.75" customHeight="1">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -6131,8 +6522,11 @@
         <v>1</v>
       </c>
       <c r="K130" s="4"/>
-    </row>
-    <row r="131" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L130" s="14">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="33.75" customHeight="1">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -6164,8 +6558,11 @@
         <v>1</v>
       </c>
       <c r="K131" s="4"/>
-    </row>
-    <row r="132" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L131" s="14">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="33.75" customHeight="1">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -6197,8 +6594,11 @@
         <v>1</v>
       </c>
       <c r="K132" s="4"/>
-    </row>
-    <row r="133" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L132" s="14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="33.75" customHeight="1">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -6230,8 +6630,11 @@
         <v>1</v>
       </c>
       <c r="K133" s="4"/>
-    </row>
-    <row r="134" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L133" s="14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="33.75" customHeight="1">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -6263,8 +6666,11 @@
         <v>1</v>
       </c>
       <c r="K134" s="4"/>
-    </row>
-    <row r="135" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L134" s="14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="33.75" customHeight="1">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -6296,8 +6702,11 @@
         <v>1</v>
       </c>
       <c r="K135" s="4"/>
-    </row>
-    <row r="136" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L135" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="33.75" customHeight="1">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -6329,8 +6738,11 @@
         <v>1</v>
       </c>
       <c r="K136" s="4"/>
-    </row>
-    <row r="137" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L136" s="14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="33.75" customHeight="1">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -6362,8 +6774,11 @@
         <v>1</v>
       </c>
       <c r="K137" s="4"/>
-    </row>
-    <row r="138" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L137" s="14">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="33.75" customHeight="1">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -6395,8 +6810,11 @@
         <v>1</v>
       </c>
       <c r="K138" s="4"/>
-    </row>
-    <row r="139" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L138" s="14">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="33.75" customHeight="1">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -6428,8 +6846,11 @@
         <v>1</v>
       </c>
       <c r="K139" s="4"/>
-    </row>
-    <row r="140" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L139" s="14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="33.75" customHeight="1">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -6461,8 +6882,11 @@
         <v>1</v>
       </c>
       <c r="K140" s="4"/>
-    </row>
-    <row r="141" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L140" s="14">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="33.75" customHeight="1">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -6494,8 +6918,11 @@
         <v>1</v>
       </c>
       <c r="K141" s="4"/>
-    </row>
-    <row r="142" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L141" s="14">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="33.75" customHeight="1">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -6527,8 +6954,11 @@
         <v>1</v>
       </c>
       <c r="K142" s="4"/>
-    </row>
-    <row r="143" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L142" s="14">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="33.75" customHeight="1">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -6560,8 +6990,11 @@
         <v>1</v>
       </c>
       <c r="K143" s="4"/>
-    </row>
-    <row r="144" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L143" s="14">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="33.75" customHeight="1">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -6593,8 +7026,11 @@
         <v>1</v>
       </c>
       <c r="K144" s="4"/>
-    </row>
-    <row r="145" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L144" s="14">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="33.75" customHeight="1">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -6626,8 +7062,11 @@
         <v>1</v>
       </c>
       <c r="K145" s="4"/>
-    </row>
-    <row r="146" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L145" s="14">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="33.75" customHeight="1">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -6659,8 +7098,11 @@
         <v>1</v>
       </c>
       <c r="K146" s="4"/>
-    </row>
-    <row r="147" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L146" s="14">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="33.75" customHeight="1">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -6692,8 +7134,11 @@
         <v>1</v>
       </c>
       <c r="K147" s="4"/>
-    </row>
-    <row r="148" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L147" s="14">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="33.75" customHeight="1">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -6725,8 +7170,11 @@
         <v>1</v>
       </c>
       <c r="K148" s="4"/>
-    </row>
-    <row r="149" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L148" s="14">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="33.75" customHeight="1">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -6758,8 +7206,11 @@
         <v>1</v>
       </c>
       <c r="K149" s="4"/>
-    </row>
-    <row r="150" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L149" s="14">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="33.75" customHeight="1">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -6791,8 +7242,11 @@
         <v>1</v>
       </c>
       <c r="K150" s="4"/>
-    </row>
-    <row r="151" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L150" s="14">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="33.75" customHeight="1">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -6824,8 +7278,11 @@
         <v>1</v>
       </c>
       <c r="K151" s="4"/>
-    </row>
-    <row r="152" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L151" s="14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="33.75" customHeight="1">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -6857,8 +7314,11 @@
         <v>1</v>
       </c>
       <c r="K152" s="4"/>
-    </row>
-    <row r="153" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L152" s="14">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="33.75" customHeight="1">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -6890,8 +7350,11 @@
         <v>1</v>
       </c>
       <c r="K153" s="4"/>
-    </row>
-    <row r="154" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L153" s="14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="33.75" customHeight="1">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -6923,10 +7386,13 @@
         <v>0.7</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L154" s="14">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="33.75" customHeight="1">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -6958,8 +7424,11 @@
         <v>0.85</v>
       </c>
       <c r="K155" s="4"/>
-    </row>
-    <row r="156" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L155" s="14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="33.75" customHeight="1">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -6991,8 +7460,11 @@
         <v>1</v>
       </c>
       <c r="K156" s="4"/>
-    </row>
-    <row r="157" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L156" s="14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="33.75" customHeight="1">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -7022,8 +7494,11 @@
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-    </row>
-    <row r="158" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L157" s="14">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="33.75" customHeight="1">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -7055,8 +7530,11 @@
         <v>1</v>
       </c>
       <c r="K158" s="4"/>
-    </row>
-    <row r="159" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L158" s="14">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="33.75" customHeight="1">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -7088,8 +7566,11 @@
         <v>1</v>
       </c>
       <c r="K159" s="4"/>
-    </row>
-    <row r="160" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L159" s="14">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="33.75" customHeight="1">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -7121,8 +7602,11 @@
         <v>1</v>
       </c>
       <c r="K160" s="4"/>
-    </row>
-    <row r="161" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L160" s="14">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="33.75" customHeight="1">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -7152,8 +7636,11 @@
       </c>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
-    </row>
-    <row r="162" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L161" s="14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="33.75" customHeight="1">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -7183,8 +7670,11 @@
       </c>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
-    </row>
-    <row r="163" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L162" s="14">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="33.75" customHeight="1">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -7214,8 +7704,11 @@
       </c>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
-    </row>
-    <row r="164" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L163" s="14">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="33.75" customHeight="1">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -7245,8 +7738,11 @@
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
-    </row>
-    <row r="165" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L164" s="14">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="33.75" customHeight="1">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -7278,8 +7774,11 @@
         <v>0.35</v>
       </c>
       <c r="K165" s="4"/>
-    </row>
-    <row r="166" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L165" s="14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="33.75" customHeight="1">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -7311,8 +7810,11 @@
         <v>0.22</v>
       </c>
       <c r="K166" s="4"/>
-    </row>
-    <row r="167" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L166" s="14">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="33.75" customHeight="1">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -7344,8 +7846,11 @@
         <v>1</v>
       </c>
       <c r="K167" s="4"/>
-    </row>
-    <row r="168" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L167" s="14">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="33.75" customHeight="1">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -7377,8 +7882,11 @@
         <v>1</v>
       </c>
       <c r="K168" s="4"/>
-    </row>
-    <row r="169" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L168" s="14">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="33.75" customHeight="1">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -7410,10 +7918,13 @@
         <v>0.9</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L169" s="14">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="33.75" customHeight="1">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -7445,10 +7956,13 @@
         <v>0.9</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L170" s="14">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="33.75" customHeight="1">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -7480,8 +7994,11 @@
         <v>0.95</v>
       </c>
       <c r="K171" s="4"/>
-    </row>
-    <row r="172" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L171" s="14">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="33.75" customHeight="1">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -7513,8 +8030,11 @@
         <v>0.95</v>
       </c>
       <c r="K172" s="4"/>
-    </row>
-    <row r="173" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L172" s="14">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="33.75" customHeight="1">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -7546,8 +8066,11 @@
         <v>0.95</v>
       </c>
       <c r="K173" s="4"/>
-    </row>
-    <row r="174" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L173" s="14">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="33.75" customHeight="1">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -7577,10 +8100,13 @@
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L174" s="14">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="33.75" customHeight="1">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -7612,8 +8138,11 @@
         <v>0.86</v>
       </c>
       <c r="K175" s="4"/>
-    </row>
-    <row r="176" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L175" s="14">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="33.75" customHeight="1">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -7645,8 +8174,11 @@
         <v>0.22</v>
       </c>
       <c r="K176" s="4"/>
-    </row>
-    <row r="177" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L176" s="14">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="33.75" customHeight="1">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -7678,8 +8210,11 @@
         <v>0.6</v>
       </c>
       <c r="K177" s="4"/>
-    </row>
-    <row r="178" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L177" s="14">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="33.75" customHeight="1">
       <c r="A178" s="9">
         <v>177</v>
       </c>
@@ -7711,8 +8246,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K178" s="4"/>
-    </row>
-    <row r="179" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L178" s="14">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="33.75" customHeight="1">
       <c r="A179" s="9">
         <v>178</v>
       </c>
@@ -7742,10 +8280,13 @@
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L179" s="14">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="33.75" customHeight="1">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -7775,8 +8316,11 @@
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
-    </row>
-    <row r="181" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L180" s="14">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="33.75" customHeight="1">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -7806,8 +8350,11 @@
       </c>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
-    </row>
-    <row r="182" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L181" s="14">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="33.75" customHeight="1">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -7837,8 +8384,11 @@
       </c>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
-    </row>
-    <row r="183" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L182" s="14">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="33.75" customHeight="1">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -7868,8 +8418,11 @@
       </c>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
-    </row>
-    <row r="184" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L183" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="33.75" customHeight="1">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -7899,8 +8452,11 @@
       </c>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
-    </row>
-    <row r="185" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L184" s="14">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="33.75" customHeight="1">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -7930,8 +8486,11 @@
       </c>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
-    </row>
-    <row r="186" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L185" s="14">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="33.75" customHeight="1">
       <c r="A186" s="9">
         <v>185</v>
       </c>
@@ -7961,8 +8520,11 @@
       </c>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
-    </row>
-    <row r="187" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L186" s="14">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="33.75" customHeight="1">
       <c r="A187" s="9">
         <v>186</v>
       </c>
@@ -7992,8 +8554,11 @@
       </c>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
-    </row>
-    <row r="188" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L187" s="14">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="33.75" customHeight="1">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -8023,8 +8588,11 @@
       </c>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
-    </row>
-    <row r="189" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L188" s="14">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="33.75" customHeight="1">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -8056,10 +8624,13 @@
         <v>0.05</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L189" s="14">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="33.75" customHeight="1">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -8089,8 +8660,11 @@
       </c>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
-    </row>
-    <row r="191" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L190" s="14">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="33.75" customHeight="1">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -8122,8 +8696,11 @@
         <v>1</v>
       </c>
       <c r="K191" s="4"/>
-    </row>
-    <row r="192" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L191" s="14">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="33.75" customHeight="1">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -8153,8 +8730,11 @@
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
-    </row>
-    <row r="193" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L192" s="14">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="33.75" customHeight="1">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -8184,8 +8764,11 @@
       </c>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
-    </row>
-    <row r="194" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L193" s="14">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="33.75" customHeight="1">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -8217,8 +8800,11 @@
         <v>0.35</v>
       </c>
       <c r="K194" s="4"/>
-    </row>
-    <row r="195" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L194" s="14">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="33.75" customHeight="1">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -8248,8 +8834,11 @@
       </c>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
-    </row>
-    <row r="196" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L195" s="14">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="33.75" customHeight="1">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -8281,8 +8870,11 @@
         <v>0.6</v>
       </c>
       <c r="K196" s="4"/>
-    </row>
-    <row r="197" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L196" s="14">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="33.75" customHeight="1">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -8314,8 +8906,11 @@
         <v>1</v>
       </c>
       <c r="K197" s="4"/>
-    </row>
-    <row r="198" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L197" s="14">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="33.75" customHeight="1">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -8345,8 +8940,11 @@
       </c>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
-    </row>
-    <row r="199" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L198" s="14">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="33.75" customHeight="1">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -8378,10 +8976,13 @@
         <v>0.77</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L199" s="14">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="33.75" customHeight="1">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -8413,8 +9014,11 @@
         <v>1</v>
       </c>
       <c r="K200" s="4"/>
-    </row>
-    <row r="201" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L200" s="14">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="33.75" customHeight="1">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -8446,8 +9050,11 @@
         <v>1</v>
       </c>
       <c r="K201" s="4"/>
-    </row>
-    <row r="202" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L201" s="14">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="33.75" customHeight="1">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -8479,8 +9086,11 @@
         <v>1</v>
       </c>
       <c r="K202" s="4"/>
-    </row>
-    <row r="203" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L202" s="14">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="33.75" customHeight="1">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -8512,10 +9122,13 @@
         <v>0.45</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L203" s="14">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="33.75" customHeight="1">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -8547,8 +9160,11 @@
         <v>0.93</v>
       </c>
       <c r="K204" s="4"/>
-    </row>
-    <row r="205" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L204" s="14">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="33.75" customHeight="1">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -8580,8 +9196,11 @@
         <v>0.93</v>
       </c>
       <c r="K205" s="4"/>
-    </row>
-    <row r="206" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L205" s="14">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="33.75" customHeight="1">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -8613,8 +9232,11 @@
         <v>1</v>
       </c>
       <c r="K206" s="4"/>
-    </row>
-    <row r="207" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L206" s="14">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="33.75" customHeight="1">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -8646,8 +9268,11 @@
         <v>1</v>
       </c>
       <c r="K207" s="4"/>
-    </row>
-    <row r="208" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L207" s="14">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="33.75" customHeight="1">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -8679,8 +9304,11 @@
         <v>1</v>
       </c>
       <c r="K208" s="4"/>
-    </row>
-    <row r="209" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L208" s="14">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="33.75" customHeight="1">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -8712,8 +9340,11 @@
         <v>1</v>
       </c>
       <c r="K209" s="4"/>
-    </row>
-    <row r="210" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L209" s="14">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="33.75" customHeight="1">
       <c r="A210" s="9">
         <v>209</v>
       </c>
@@ -8745,8 +9376,11 @@
         <v>1</v>
       </c>
       <c r="K210" s="4"/>
-    </row>
-    <row r="211" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L210" s="14">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="33.75" customHeight="1">
       <c r="A211" s="9">
         <v>210</v>
       </c>
@@ -8778,8 +9412,11 @@
         <v>0.8</v>
       </c>
       <c r="K211" s="4"/>
-    </row>
-    <row r="212" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L211" s="14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="33.75" customHeight="1">
       <c r="A212" s="9">
         <v>211</v>
       </c>
@@ -8811,8 +9448,11 @@
         <v>0.8</v>
       </c>
       <c r="K212" s="4"/>
-    </row>
-    <row r="213" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L212" s="14">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="33.75" customHeight="1">
       <c r="A213" s="9">
         <v>212</v>
       </c>
@@ -8844,8 +9484,11 @@
         <v>0.8</v>
       </c>
       <c r="K213" s="4"/>
-    </row>
-    <row r="214" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L213" s="14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="33.75" customHeight="1">
       <c r="A214" s="9">
         <v>213</v>
       </c>
@@ -8877,8 +9520,11 @@
         <v>0.85</v>
       </c>
       <c r="K214" s="4"/>
-    </row>
-    <row r="215" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L214" s="14">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="33.75" customHeight="1">
       <c r="A215" s="9">
         <v>214</v>
       </c>
@@ -8910,8 +9556,11 @@
         <v>0.82</v>
       </c>
       <c r="K215" s="4"/>
-    </row>
-    <row r="216" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L215" s="14">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="33.75" customHeight="1">
       <c r="A216" s="9">
         <v>215</v>
       </c>
@@ -8943,8 +9592,11 @@
         <v>0.2</v>
       </c>
       <c r="K216" s="4"/>
-    </row>
-    <row r="217" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L216" s="14">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="33.75" customHeight="1">
       <c r="A217" s="9">
         <v>216</v>
       </c>
@@ -8976,8 +9628,11 @@
         <v>0.75</v>
       </c>
       <c r="K217" s="4"/>
-    </row>
-    <row r="218" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L217" s="14">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="33.75" customHeight="1">
       <c r="A218" s="9">
         <v>217</v>
       </c>
@@ -9005,12 +9660,13 @@
       <c r="I218" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="J218" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="J218" s="4"/>
       <c r="K218" s="4"/>
-    </row>
-    <row r="219" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L218" s="14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="33.75" customHeight="1">
       <c r="A219" s="9">
         <v>218</v>
       </c>
@@ -9040,8 +9696,11 @@
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-    </row>
-    <row r="220" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L219" s="14">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="33.75" customHeight="1">
       <c r="A220" s="9">
         <v>219</v>
       </c>
@@ -9071,8 +9730,11 @@
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-    </row>
-    <row r="221" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L220" s="14">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="33.75" customHeight="1">
       <c r="A221" s="9">
         <v>220</v>
       </c>
@@ -9104,8 +9766,11 @@
         <v>0.8</v>
       </c>
       <c r="K221" s="4"/>
-    </row>
-    <row r="222" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L221" s="14">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="33.75" customHeight="1">
       <c r="A222" s="9">
         <v>221</v>
       </c>
@@ -9137,8 +9802,11 @@
         <v>0.8</v>
       </c>
       <c r="K222" s="4"/>
-    </row>
-    <row r="223" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L222" s="14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="33.75" customHeight="1">
       <c r="A223" s="9">
         <v>222</v>
       </c>
@@ -9170,8 +9838,11 @@
         <v>0.8</v>
       </c>
       <c r="K223" s="4"/>
-    </row>
-    <row r="224" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L223" s="14">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="33.75" customHeight="1">
       <c r="A224" s="9">
         <v>223</v>
       </c>
@@ -9203,8 +9874,11 @@
         <v>0.8</v>
       </c>
       <c r="K224" s="4"/>
-    </row>
-    <row r="225" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L224" s="14">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="33.75" customHeight="1">
       <c r="A225" s="9">
         <v>224</v>
       </c>
@@ -9236,8 +9910,11 @@
         <v>0.8</v>
       </c>
       <c r="K225" s="4"/>
-    </row>
-    <row r="226" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L225" s="14">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="33.75" customHeight="1">
       <c r="A226" s="9">
         <v>225</v>
       </c>
@@ -9269,8 +9946,11 @@
         <v>0.8</v>
       </c>
       <c r="K226" s="4"/>
-    </row>
-    <row r="227" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L226" s="14">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="33.75" customHeight="1">
       <c r="A227" s="9">
         <v>226</v>
       </c>
@@ -9302,8 +9982,11 @@
         <v>0.8</v>
       </c>
       <c r="K227" s="4"/>
-    </row>
-    <row r="228" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L227" s="14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="33.75" customHeight="1">
       <c r="A228" s="9">
         <v>227</v>
       </c>
@@ -9335,8 +10018,11 @@
         <v>0.8</v>
       </c>
       <c r="K228" s="4"/>
-    </row>
-    <row r="229" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L228" s="14">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="33.75" customHeight="1">
       <c r="A229" s="9">
         <v>228</v>
       </c>
@@ -9368,8 +10054,11 @@
         <v>0.8</v>
       </c>
       <c r="K229" s="4"/>
-    </row>
-    <row r="230" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L229" s="14">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="33.75" customHeight="1">
       <c r="A230" s="9">
         <v>229</v>
       </c>
@@ -9401,8 +10090,11 @@
         <v>0.8</v>
       </c>
       <c r="K230" s="4"/>
-    </row>
-    <row r="231" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L230" s="14">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="33.75" customHeight="1">
       <c r="A231" s="9">
         <v>230</v>
       </c>
@@ -9432,8 +10124,11 @@
       </c>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
-    </row>
-    <row r="232" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L231" s="14">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="33.75" customHeight="1">
       <c r="A232" s="9">
         <v>231</v>
       </c>
@@ -9463,8 +10158,11 @@
       </c>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
-    </row>
-    <row r="233" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L232" s="14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="33.75" customHeight="1">
       <c r="A233" s="9">
         <v>232</v>
       </c>
@@ -9496,10 +10194,13 @@
         <v>0.33</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L233" s="14">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="33.75" customHeight="1">
       <c r="A234" s="9">
         <v>233</v>
       </c>
@@ -9531,8 +10232,11 @@
         <v>1</v>
       </c>
       <c r="K234" s="4"/>
-    </row>
-    <row r="235" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L234" s="14">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="33.75" customHeight="1">
       <c r="A235" s="9">
         <v>234</v>
       </c>
@@ -9564,8 +10268,11 @@
         <v>1</v>
       </c>
       <c r="K235" s="4"/>
-    </row>
-    <row r="236" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L235" s="14">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="33.75" customHeight="1">
       <c r="A236" s="9">
         <v>235</v>
       </c>
@@ -9597,8 +10304,11 @@
         <v>1</v>
       </c>
       <c r="K236" s="4"/>
-    </row>
-    <row r="237" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L236" s="14">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="33.75" customHeight="1">
       <c r="A237" s="9">
         <v>236</v>
       </c>
@@ -9630,8 +10340,11 @@
         <v>1</v>
       </c>
       <c r="K237" s="4"/>
-    </row>
-    <row r="238" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L237" s="14">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="33.75" customHeight="1">
       <c r="A238" s="9">
         <v>237</v>
       </c>
@@ -9659,8 +10372,11 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
-    </row>
-    <row r="239" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L238" s="14">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="33.75" customHeight="1">
       <c r="A239" s="9">
         <v>238</v>
       </c>
@@ -9688,8 +10404,11 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
-    </row>
-    <row r="240" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L239" s="14">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="33.75" customHeight="1">
       <c r="A240" s="9">
         <v>239</v>
       </c>
@@ -9717,8 +10436,11 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
-    </row>
-    <row r="241" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L240" s="14">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="33.75" customHeight="1">
       <c r="A241" s="9">
         <v>240</v>
       </c>
@@ -9746,8 +10468,11 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
-    </row>
-    <row r="242" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L241" s="14">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="33.75" customHeight="1">
       <c r="A242" s="9">
         <v>241</v>
       </c>
@@ -9775,8 +10500,11 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
-    </row>
-    <row r="243" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L242" s="14">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="33.75" customHeight="1">
       <c r="A243" s="9">
         <v>242</v>
       </c>
@@ -9804,8 +10532,11 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
-    </row>
-    <row r="244" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L243" s="14">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="33.75" customHeight="1">
       <c r="A244" s="9">
         <v>243</v>
       </c>
@@ -9837,8 +10568,11 @@
         <v>0.7</v>
       </c>
       <c r="K244" s="4"/>
-    </row>
-    <row r="245" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L244" s="14">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="33.75" customHeight="1">
       <c r="A245" s="9">
         <v>244</v>
       </c>
@@ -9870,8 +10604,11 @@
         <v>0.7</v>
       </c>
       <c r="K245" s="4"/>
-    </row>
-    <row r="246" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L245" s="14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="33.75" customHeight="1">
       <c r="A246" s="9">
         <v>245</v>
       </c>
@@ -9903,8 +10640,11 @@
         <v>1</v>
       </c>
       <c r="K246" s="4"/>
-    </row>
-    <row r="247" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L246" s="14">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="33.75" customHeight="1">
       <c r="A247" s="9">
         <v>246</v>
       </c>
@@ -9936,8 +10676,11 @@
         <v>1</v>
       </c>
       <c r="K247" s="4"/>
-    </row>
-    <row r="248" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L247" s="14">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="33.75" customHeight="1">
       <c r="A248" s="9">
         <v>247</v>
       </c>
@@ -9967,8 +10710,11 @@
       </c>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
-    </row>
-    <row r="249" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L248" s="14">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="33.75" customHeight="1">
       <c r="A249" s="9">
         <v>248</v>
       </c>
@@ -10000,8 +10746,11 @@
         <v>1</v>
       </c>
       <c r="K249" s="4"/>
-    </row>
-    <row r="250" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L249" s="14">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="33.75" customHeight="1">
       <c r="A250" s="9">
         <v>249</v>
       </c>
@@ -10031,8 +10780,11 @@
       </c>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
-    </row>
-    <row r="251" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L250" s="14">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="33.75" customHeight="1">
       <c r="A251" s="9">
         <v>250</v>
       </c>
@@ -10064,8 +10816,11 @@
         <v>0.25</v>
       </c>
       <c r="K251" s="4"/>
-    </row>
-    <row r="252" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L251" s="14">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="33.75" customHeight="1">
       <c r="A252" s="9">
         <v>251</v>
       </c>
@@ -10097,8 +10852,11 @@
         <v>1</v>
       </c>
       <c r="K252" s="4"/>
-    </row>
-    <row r="253" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L252" s="14">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="33.75" customHeight="1">
       <c r="A253" s="9">
         <v>252</v>
       </c>
@@ -10130,8 +10888,11 @@
         <v>0.3</v>
       </c>
       <c r="K253" s="4"/>
-    </row>
-    <row r="254" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L253" s="14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="33.75" customHeight="1">
       <c r="A254" s="9">
         <v>253</v>
       </c>
@@ -10163,8 +10924,11 @@
         <v>0.35</v>
       </c>
       <c r="K254" s="4"/>
-    </row>
-    <row r="255" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L254" s="14">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="33.75" customHeight="1">
       <c r="A255" s="9">
         <v>254</v>
       </c>
@@ -10196,8 +10960,11 @@
         <v>1</v>
       </c>
       <c r="K255" s="4"/>
-    </row>
-    <row r="256" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L255" s="14">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="33.75" customHeight="1">
       <c r="A256" s="9">
         <v>255</v>
       </c>
@@ -10229,8 +10996,11 @@
         <v>0.3</v>
       </c>
       <c r="K256" s="4"/>
-    </row>
-    <row r="257" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L256" s="14">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="33.75" customHeight="1">
       <c r="A257" s="9">
         <v>256</v>
       </c>
@@ -10262,8 +11032,11 @@
         <v>1</v>
       </c>
       <c r="K257" s="4"/>
-    </row>
-    <row r="258" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L257" s="14">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="33.75" customHeight="1">
       <c r="A258" s="9">
         <v>257</v>
       </c>
@@ -10295,8 +11068,11 @@
         <v>1</v>
       </c>
       <c r="K258" s="4"/>
-    </row>
-    <row r="259" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L258" s="14">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="33.75" customHeight="1">
       <c r="A259" s="9">
         <v>258</v>
       </c>
@@ -10328,8 +11104,11 @@
         <v>0.5</v>
       </c>
       <c r="K259" s="4"/>
-    </row>
-    <row r="260" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L259" s="14">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="33.75" customHeight="1">
       <c r="A260" s="9">
         <v>259</v>
       </c>
@@ -10361,8 +11140,11 @@
         <v>1</v>
       </c>
       <c r="K260" s="4"/>
-    </row>
-    <row r="261" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L260" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="33.75" customHeight="1">
       <c r="A261" s="9">
         <v>260</v>
       </c>
@@ -10394,8 +11176,11 @@
         <v>1</v>
       </c>
       <c r="K261" s="4"/>
-    </row>
-    <row r="262" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L261" s="14">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="33.75" customHeight="1">
       <c r="A262" s="9">
         <v>261</v>
       </c>
@@ -10427,8 +11212,11 @@
         <v>1</v>
       </c>
       <c r="K262" s="4"/>
-    </row>
-    <row r="263" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L262" s="14">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="33.75" customHeight="1">
       <c r="A263" s="9">
         <v>262</v>
       </c>
@@ -10460,8 +11248,11 @@
         <v>1</v>
       </c>
       <c r="K263" s="4"/>
-    </row>
-    <row r="264" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L263" s="14">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="33.75" customHeight="1">
       <c r="A264" s="9">
         <v>263</v>
       </c>
@@ -10493,8 +11284,11 @@
         <v>0.65</v>
       </c>
       <c r="K264" s="4"/>
-    </row>
-    <row r="265" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L264" s="14">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="33.75" customHeight="1">
       <c r="A265" s="9">
         <v>264</v>
       </c>
@@ -10526,8 +11320,11 @@
         <v>0.65</v>
       </c>
       <c r="K265" s="4"/>
-    </row>
-    <row r="266" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L265" s="14">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="33.75" customHeight="1">
       <c r="A266" s="9">
         <v>265</v>
       </c>
@@ -10555,10 +11352,13 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
       <c r="K266" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="33.75" customHeight="1">
+        <v>433</v>
+      </c>
+      <c r="L266" s="14">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="33.75" customHeight="1">
       <c r="A267" s="9">
         <v>266</v>
       </c>
@@ -10590,8 +11390,11 @@
         <v>1</v>
       </c>
       <c r="K267" s="4"/>
-    </row>
-    <row r="268" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L267" s="14">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="33.75" customHeight="1">
       <c r="A268" s="9">
         <v>267</v>
       </c>
@@ -10623,8 +11426,11 @@
         <v>1</v>
       </c>
       <c r="K268" s="4"/>
-    </row>
-    <row r="269" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L268" s="14">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="33.75" customHeight="1">
       <c r="A269" s="9">
         <v>268</v>
       </c>
@@ -10656,8 +11462,11 @@
         <v>1</v>
       </c>
       <c r="K269" s="4"/>
-    </row>
-    <row r="270" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L269" s="14">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="33.75" customHeight="1">
       <c r="A270" s="9">
         <v>269</v>
       </c>
@@ -10689,8 +11498,11 @@
         <v>1</v>
       </c>
       <c r="K270" s="4"/>
-    </row>
-    <row r="271" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L270" s="14">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="33.75" customHeight="1">
       <c r="A271" s="9">
         <v>270</v>
       </c>
@@ -10722,8 +11534,11 @@
         <v>1</v>
       </c>
       <c r="K271" s="4"/>
-    </row>
-    <row r="272" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L271" s="14">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="33.75" customHeight="1">
       <c r="A272" s="9">
         <v>271</v>
       </c>
@@ -10755,8 +11570,11 @@
         <v>1</v>
       </c>
       <c r="K272" s="4"/>
-    </row>
-    <row r="273" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L272" s="14">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="33.75" customHeight="1">
       <c r="A273" s="9">
         <v>272</v>
       </c>
@@ -10788,8 +11606,11 @@
         <v>1</v>
       </c>
       <c r="K273" s="4"/>
-    </row>
-    <row r="274" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L273" s="14">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="33.75" customHeight="1">
       <c r="A274" s="9">
         <v>273</v>
       </c>
@@ -10821,8 +11642,11 @@
         <v>1</v>
       </c>
       <c r="K274" s="4"/>
-    </row>
-    <row r="275" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L274" s="14">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="33.75" customHeight="1">
       <c r="A275" s="9">
         <v>274</v>
       </c>
@@ -10854,8 +11678,11 @@
         <v>1</v>
       </c>
       <c r="K275" s="4"/>
-    </row>
-    <row r="276" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L275" s="14">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="33.75" customHeight="1">
       <c r="A276" s="9">
         <v>275</v>
       </c>
@@ -10887,8 +11714,11 @@
         <v>1</v>
       </c>
       <c r="K276" s="4"/>
-    </row>
-    <row r="277" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L276" s="14">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="33.75" customHeight="1">
       <c r="A277" s="9">
         <v>276</v>
       </c>
@@ -10920,8 +11750,11 @@
         <v>1</v>
       </c>
       <c r="K277" s="4"/>
-    </row>
-    <row r="278" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L277" s="14">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="33.75" customHeight="1">
       <c r="A278" s="9">
         <v>277</v>
       </c>
@@ -10953,8 +11786,11 @@
         <v>1</v>
       </c>
       <c r="K278" s="4"/>
-    </row>
-    <row r="279" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L278" s="14">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="33.75" customHeight="1">
       <c r="A279" s="9">
         <v>278</v>
       </c>
@@ -10986,8 +11822,11 @@
         <v>1</v>
       </c>
       <c r="K279" s="4"/>
-    </row>
-    <row r="280" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L279" s="14">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="33.75" customHeight="1">
       <c r="A280" s="9">
         <v>279</v>
       </c>
@@ -11019,8 +11858,11 @@
         <v>1</v>
       </c>
       <c r="K280" s="4"/>
-    </row>
-    <row r="281" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L280" s="14">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="33.75" customHeight="1">
       <c r="A281" s="9">
         <v>280</v>
       </c>
@@ -11050,8 +11892,11 @@
       </c>
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
-    </row>
-    <row r="282" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L281" s="14">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="33.75" customHeight="1">
       <c r="A282" s="9">
         <v>281</v>
       </c>
@@ -11083,8 +11928,11 @@
         <v>0.6</v>
       </c>
       <c r="K282" s="4"/>
-    </row>
-    <row r="283" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L282" s="14">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="33.75" customHeight="1">
       <c r="A283" s="9">
         <v>282</v>
       </c>
@@ -11114,8 +11962,11 @@
       </c>
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
-    </row>
-    <row r="284" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L283" s="14">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="33.75" customHeight="1">
       <c r="A284" s="9">
         <v>283</v>
       </c>
@@ -11145,8 +11996,11 @@
       </c>
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
-    </row>
-    <row r="285" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L284" s="14">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="33.75" customHeight="1">
       <c r="A285" s="9">
         <v>284</v>
       </c>
@@ -11176,8 +12030,11 @@
       </c>
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
-    </row>
-    <row r="286" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L285" s="14">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="33.75" customHeight="1">
       <c r="A286" s="9">
         <v>285</v>
       </c>
@@ -11207,8 +12064,11 @@
       </c>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
-    </row>
-    <row r="287" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L286" s="14">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="33.75" customHeight="1">
       <c r="A287" s="9">
         <v>286</v>
       </c>
@@ -11238,8 +12098,11 @@
       </c>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
-    </row>
-    <row r="288" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L287" s="14">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="33.75" customHeight="1">
       <c r="A288" s="9">
         <v>287</v>
       </c>
@@ -11269,8 +12132,11 @@
       </c>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
-    </row>
-    <row r="289" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L288" s="14">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="33.75" customHeight="1">
       <c r="A289" s="9">
         <v>288</v>
       </c>
@@ -11300,8 +12166,11 @@
       </c>
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
-    </row>
-    <row r="290" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L289" s="14">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="33.75" customHeight="1">
       <c r="A290" s="9">
         <v>289</v>
       </c>
@@ -11331,8 +12200,11 @@
       </c>
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
-    </row>
-    <row r="291" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L290" s="14">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="33.75" customHeight="1">
       <c r="A291" s="9">
         <v>290</v>
       </c>
@@ -11364,8 +12236,11 @@
         <v>1</v>
       </c>
       <c r="K291" s="4"/>
-    </row>
-    <row r="292" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L291" s="14">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="33.75" customHeight="1">
       <c r="A292" s="9">
         <v>291</v>
       </c>
@@ -11395,8 +12270,11 @@
       </c>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
-    </row>
-    <row r="293" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L292" s="14">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="33.75" customHeight="1">
       <c r="A293" s="9">
         <v>292</v>
       </c>
@@ -11426,8 +12304,11 @@
       </c>
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
-    </row>
-    <row r="294" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L293" s="14">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="33.75" customHeight="1">
       <c r="A294" s="9">
         <v>293</v>
       </c>
@@ -11457,8 +12338,11 @@
       </c>
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
-    </row>
-    <row r="295" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L294" s="14">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="33.75" customHeight="1">
       <c r="A295" s="9">
         <v>294</v>
       </c>
@@ -11488,8 +12372,11 @@
       </c>
       <c r="J295" s="4"/>
       <c r="K295" s="4"/>
-    </row>
-    <row r="296" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L295" s="14">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="33.75" customHeight="1">
       <c r="A296" s="9">
         <v>295</v>
       </c>
@@ -11519,8 +12406,11 @@
       </c>
       <c r="J296" s="4"/>
       <c r="K296" s="4"/>
-    </row>
-    <row r="297" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L296" s="14">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="33.75" customHeight="1">
       <c r="A297" s="9">
         <v>296</v>
       </c>
@@ -11550,8 +12440,11 @@
       </c>
       <c r="J297" s="4"/>
       <c r="K297" s="4"/>
-    </row>
-    <row r="298" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L297" s="14">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="33.75" customHeight="1">
       <c r="A298" s="9">
         <v>297</v>
       </c>
@@ -11581,8 +12474,11 @@
       </c>
       <c r="J298" s="4"/>
       <c r="K298" s="4"/>
-    </row>
-    <row r="299" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L298" s="14">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="33.75" customHeight="1">
       <c r="A299" s="9">
         <v>298</v>
       </c>
@@ -11612,8 +12508,11 @@
       </c>
       <c r="J299" s="4"/>
       <c r="K299" s="4"/>
-    </row>
-    <row r="300" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L299" s="14">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="33.75" customHeight="1">
       <c r="A300" s="9">
         <v>299</v>
       </c>
@@ -11643,8 +12542,11 @@
       </c>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
-    </row>
-    <row r="301" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L300" s="14">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="33.75" customHeight="1">
       <c r="A301" s="9">
         <v>300</v>
       </c>
@@ -11676,8 +12578,11 @@
         <v>0.8</v>
       </c>
       <c r="K301" s="4"/>
-    </row>
-    <row r="302" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L301" s="14">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="33.75" customHeight="1">
       <c r="A302" s="9">
         <v>301</v>
       </c>
@@ -11709,8 +12614,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K302" s="4"/>
-    </row>
-    <row r="303" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L302" s="14">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="33.75" customHeight="1">
       <c r="A303" s="9">
         <v>302</v>
       </c>
@@ -11742,8 +12650,11 @@
         <v>0.8</v>
       </c>
       <c r="K303" s="4"/>
-    </row>
-    <row r="304" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L303" s="14">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="33.75" customHeight="1">
       <c r="A304" s="9">
         <v>303</v>
       </c>
@@ -11773,8 +12684,11 @@
       </c>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
-    </row>
-    <row r="305" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L304" s="14">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="33.75" customHeight="1">
       <c r="A305" s="9">
         <v>304</v>
       </c>
@@ -11806,8 +12720,11 @@
         <v>0.25</v>
       </c>
       <c r="K305" s="4"/>
-    </row>
-    <row r="306" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L305" s="14">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="33.75" customHeight="1">
       <c r="A306" s="9">
         <v>305</v>
       </c>
@@ -11837,8 +12754,11 @@
       </c>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
-    </row>
-    <row r="307" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L306" s="14">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="33.75" customHeight="1">
       <c r="A307" s="9">
         <v>306</v>
       </c>
@@ -11870,8 +12790,11 @@
         <v>0.8</v>
       </c>
       <c r="K307" s="4"/>
-    </row>
-    <row r="308" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L307" s="14">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="33.75" customHeight="1">
       <c r="A308" s="9">
         <v>307</v>
       </c>
@@ -11903,8 +12826,11 @@
         <v>0.8</v>
       </c>
       <c r="K308" s="4"/>
-    </row>
-    <row r="309" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L308" s="14">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="33.75" customHeight="1">
       <c r="A309" s="9">
         <v>308</v>
       </c>
@@ -11936,8 +12862,11 @@
         <v>1</v>
       </c>
       <c r="K309" s="4"/>
-    </row>
-    <row r="310" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L309" s="14">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="33.75" customHeight="1">
       <c r="A310" s="9">
         <v>309</v>
       </c>
@@ -11969,8 +12898,11 @@
         <v>0.15</v>
       </c>
       <c r="K310" s="4"/>
-    </row>
-    <row r="311" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L310" s="14">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="33.75" customHeight="1">
       <c r="A311" s="9">
         <v>310</v>
       </c>
@@ -12002,8 +12934,11 @@
         <v>0.32</v>
       </c>
       <c r="K311" s="4"/>
-    </row>
-    <row r="312" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L311" s="14">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="33.75" customHeight="1">
       <c r="A312" s="9">
         <v>311</v>
       </c>
@@ -12035,8 +12970,11 @@
         <v>0.7</v>
       </c>
       <c r="K312" s="4"/>
-    </row>
-    <row r="313" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L312" s="14">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="33.75" customHeight="1">
       <c r="A313" s="9">
         <v>312</v>
       </c>
@@ -12068,8 +13006,11 @@
         <v>0.85</v>
       </c>
       <c r="K313" s="4"/>
-    </row>
-    <row r="314" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L313" s="14">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="33.75" customHeight="1">
       <c r="A314" s="9">
         <v>313</v>
       </c>
@@ -12101,8 +13042,11 @@
         <v>0.8</v>
       </c>
       <c r="K314" s="4"/>
-    </row>
-    <row r="315" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L314" s="14">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="33.75" customHeight="1">
       <c r="A315" s="9">
         <v>314</v>
       </c>
@@ -12134,8 +13078,11 @@
         <v>0.25</v>
       </c>
       <c r="K315" s="4"/>
-    </row>
-    <row r="316" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L315" s="14">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="33.75" customHeight="1">
       <c r="A316" s="9">
         <v>315</v>
       </c>
@@ -12167,8 +13114,11 @@
         <v>0.1</v>
       </c>
       <c r="K316" s="4"/>
-    </row>
-    <row r="317" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L316" s="14">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="33.75" customHeight="1">
       <c r="A317" s="9">
         <v>316</v>
       </c>
@@ -12200,8 +13150,11 @@
         <v>0.85</v>
       </c>
       <c r="K317" s="4"/>
-    </row>
-    <row r="318" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L317" s="14">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="33.75" customHeight="1">
       <c r="A318" s="9">
         <v>317</v>
       </c>
@@ -12231,8 +13184,11 @@
       </c>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
-    </row>
-    <row r="319" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L318" s="14">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="33.75" customHeight="1">
       <c r="A319" s="9">
         <v>318</v>
       </c>
@@ -12262,8 +13218,11 @@
       </c>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
-    </row>
-    <row r="320" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L319" s="14">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="33.75" customHeight="1">
       <c r="A320" s="9">
         <v>319</v>
       </c>
@@ -12293,8 +13252,11 @@
       </c>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
-    </row>
-    <row r="321" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L320" s="14">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="33.75" customHeight="1">
       <c r="A321" s="9">
         <v>320</v>
       </c>
@@ -12326,10 +13288,13 @@
         <v>0.75</v>
       </c>
       <c r="K321" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L321" s="14">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="33.75" customHeight="1">
       <c r="A322" s="9">
         <v>321</v>
       </c>
@@ -12361,8 +13326,11 @@
         <v>0.3</v>
       </c>
       <c r="K322" s="4"/>
-    </row>
-    <row r="323" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L322" s="14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="33.75" customHeight="1">
       <c r="A323" s="9">
         <v>322</v>
       </c>
@@ -12394,8 +13362,11 @@
         <v>0.6</v>
       </c>
       <c r="K323" s="4"/>
-    </row>
-    <row r="324" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L323" s="14">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="33.75" customHeight="1">
       <c r="A324" s="9">
         <v>323</v>
       </c>
@@ -12427,8 +13398,11 @@
         <v>0.8</v>
       </c>
       <c r="K324" s="4"/>
-    </row>
-    <row r="325" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L324" s="14">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="33.75" customHeight="1">
       <c r="A325" s="9">
         <v>324</v>
       </c>
@@ -12460,8 +13434,11 @@
         <v>0.9</v>
       </c>
       <c r="K325" s="4"/>
-    </row>
-    <row r="326" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L325" s="14">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="33.75" customHeight="1">
       <c r="A326" s="9">
         <v>325</v>
       </c>
@@ -12493,8 +13470,11 @@
         <v>0.7</v>
       </c>
       <c r="K326" s="4"/>
-    </row>
-    <row r="327" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L326" s="14">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="33.75" customHeight="1">
       <c r="A327" s="9">
         <v>326</v>
       </c>
@@ -12526,8 +13506,11 @@
         <v>0.6</v>
       </c>
       <c r="K327" s="4"/>
-    </row>
-    <row r="328" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L327" s="14">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="33.75" customHeight="1">
       <c r="A328" s="9">
         <v>327</v>
       </c>
@@ -12555,10 +13538,13 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
       <c r="K328" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L328" s="14">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="33.75" customHeight="1">
       <c r="A329" s="9">
         <v>328</v>
       </c>
@@ -12586,10 +13572,13 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
       <c r="K329" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L329" s="14">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="33.75" customHeight="1">
       <c r="A330" s="9">
         <v>329</v>
       </c>
@@ -12617,10 +13606,13 @@
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
       <c r="K330" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L330" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="33.75" customHeight="1">
       <c r="A331" s="9">
         <v>330</v>
       </c>
@@ -12648,10 +13640,13 @@
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
       <c r="K331" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L331" s="14">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="33.75" customHeight="1">
       <c r="A332" s="9">
         <v>331</v>
       </c>
@@ -12683,8 +13678,11 @@
         <v>1</v>
       </c>
       <c r="K332" s="4"/>
-    </row>
-    <row r="333" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L332" s="14">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="33.75" customHeight="1">
       <c r="A333" s="9">
         <v>332</v>
       </c>
@@ -12716,8 +13714,11 @@
         <v>1</v>
       </c>
       <c r="K333" s="4"/>
-    </row>
-    <row r="334" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L333" s="14">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="33.75" customHeight="1">
       <c r="A334" s="9">
         <v>333</v>
       </c>
@@ -12749,8 +13750,11 @@
         <v>1</v>
       </c>
       <c r="K334" s="4"/>
-    </row>
-    <row r="335" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L334" s="14">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="33.75" customHeight="1">
       <c r="A335" s="9">
         <v>334</v>
       </c>
@@ -12782,10 +13786,13 @@
         <v>0.9</v>
       </c>
       <c r="K335" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L335" s="14">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="33.75" customHeight="1">
       <c r="A336" s="9">
         <v>335</v>
       </c>
@@ -12817,8 +13824,11 @@
         <v>1</v>
       </c>
       <c r="K336" s="4"/>
-    </row>
-    <row r="337" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L336" s="14">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="33.75" customHeight="1">
       <c r="A337" s="9">
         <v>336</v>
       </c>
@@ -12850,10 +13860,13 @@
         <v>0.95</v>
       </c>
       <c r="K337" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L337" s="14">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="33.75" customHeight="1">
       <c r="A338" s="9">
         <v>337</v>
       </c>
@@ -12885,8 +13898,11 @@
         <v>1</v>
       </c>
       <c r="K338" s="4"/>
-    </row>
-    <row r="339" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L338" s="14">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="33.75" customHeight="1">
       <c r="A339" s="9">
         <v>338</v>
       </c>
@@ -12918,8 +13934,11 @@
         <v>0.1</v>
       </c>
       <c r="K339" s="4"/>
-    </row>
-    <row r="340" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L339" s="14">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="33.75" customHeight="1">
       <c r="A340" s="9">
         <v>339</v>
       </c>
@@ -12951,8 +13970,11 @@
         <v>1</v>
       </c>
       <c r="K340" s="4"/>
-    </row>
-    <row r="341" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L340" s="14">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="33.75" customHeight="1">
       <c r="A341" s="9">
         <v>340</v>
       </c>
@@ -12984,8 +14006,11 @@
         <v>1</v>
       </c>
       <c r="K341" s="4"/>
-    </row>
-    <row r="342" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L341" s="14">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="33.75" customHeight="1">
       <c r="A342" s="9">
         <v>341</v>
       </c>
@@ -13013,8 +14038,11 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
       <c r="K342" s="4"/>
-    </row>
-    <row r="343" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L342" s="14">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="33.75" customHeight="1">
       <c r="A343" s="9">
         <v>342</v>
       </c>
@@ -13042,8 +14070,11 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
       <c r="K343" s="4"/>
-    </row>
-    <row r="344" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L343" s="14">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="33.75" customHeight="1">
       <c r="A344" s="9">
         <v>343</v>
       </c>
@@ -13071,8 +14102,11 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
       <c r="K344" s="4"/>
-    </row>
-    <row r="345" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L344" s="14">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="33.75" customHeight="1">
       <c r="A345" s="9">
         <v>344</v>
       </c>
@@ -13100,8 +14134,11 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
       <c r="K345" s="4"/>
-    </row>
-    <row r="346" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L345" s="14">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="33.75" customHeight="1">
       <c r="A346" s="9">
         <v>345</v>
       </c>
@@ -13129,8 +14166,11 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
       <c r="K346" s="4"/>
-    </row>
-    <row r="347" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L346" s="14">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="33.75" customHeight="1">
       <c r="A347" s="9">
         <v>346</v>
       </c>
@@ -13158,8 +14198,11 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
       <c r="K347" s="4"/>
-    </row>
-    <row r="348" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L347" s="14">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="33.75" customHeight="1">
       <c r="A348" s="9">
         <v>347</v>
       </c>
@@ -13187,8 +14230,11 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
       <c r="K348" s="4"/>
-    </row>
-    <row r="349" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L348" s="14">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="33.75" customHeight="1">
       <c r="A349" s="9">
         <v>348</v>
       </c>
@@ -13216,8 +14262,11 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
       <c r="K349" s="4"/>
-    </row>
-    <row r="350" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L349" s="14">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="33.75" customHeight="1">
       <c r="A350" s="9">
         <v>349</v>
       </c>
@@ -13245,8 +14294,11 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
-    </row>
-    <row r="351" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L350" s="14">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="33.75" customHeight="1">
       <c r="A351" s="9">
         <v>350</v>
       </c>
@@ -13274,10 +14326,13 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
       <c r="K351" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" ht="33.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="L351" s="14">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="33.75" customHeight="1">
       <c r="A352" s="9">
         <v>351</v>
       </c>
@@ -13309,8 +14364,11 @@
         <v>1</v>
       </c>
       <c r="K352" s="4"/>
-    </row>
-    <row r="353" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L352" s="14">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="33.75" customHeight="1">
       <c r="A353" s="9">
         <v>352</v>
       </c>
@@ -13342,8 +14400,11 @@
         <v>1</v>
       </c>
       <c r="K353" s="4"/>
-    </row>
-    <row r="354" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L353" s="14">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="33.75" customHeight="1">
       <c r="A354" s="9">
         <v>353</v>
       </c>
@@ -13375,8 +14436,11 @@
         <v>1</v>
       </c>
       <c r="K354" s="4"/>
-    </row>
-    <row r="355" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L354" s="14">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="33.75" customHeight="1">
       <c r="A355" s="9">
         <v>354</v>
       </c>
@@ -13408,8 +14472,11 @@
         <v>1</v>
       </c>
       <c r="K355" s="4"/>
-    </row>
-    <row r="356" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L355" s="14">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="33.75" customHeight="1">
       <c r="A356" s="9">
         <v>355</v>
       </c>
@@ -13441,8 +14508,11 @@
         <v>1</v>
       </c>
       <c r="K356" s="4"/>
-    </row>
-    <row r="357" spans="1:11" ht="33.75" customHeight="1">
+      <c r="L356" s="14">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="33.75" customHeight="1">
       <c r="A357" s="9">
         <v>356</v>
       </c>
@@ -13474,8 +14544,11 @@
         <v>1</v>
       </c>
       <c r="K357" s="4"/>
-    </row>
-    <row r="358" spans="1:11" ht="20.25">
+      <c r="L357" s="14">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="21">
       <c r="J358" s="12"/>
     </row>
   </sheetData>
